--- a/Tables/Sources/gameplay/Smuggle.xlsx
+++ b/Tables/Sources/gameplay/Smuggle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="18850" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>Id</t>
@@ -108,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -130,41 +127,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -173,9 +135,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,13 +206,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,39 +233,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +286,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,145 +418,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +540,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,35 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,151 +596,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1123,10 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1200,27 +1197,27 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="1:6">
@@ -1228,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -1248,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1268,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -1288,10 +1285,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
@@ -1308,10 +1305,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1328,10 +1325,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>

--- a/Tables/Sources/gameplay/Smuggle.xlsx
+++ b/Tables/Sources/gameplay/Smuggle.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -31,10 +31,16 @@
     <t>所需时间</t>
   </si>
   <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>系数</t>
+  </si>
+  <si>
     <t>奖励内容</t>
   </si>
   <si>
-    <t>系数</t>
+    <t>奖励池</t>
   </si>
   <si>
     <t>A</t>
@@ -61,16 +67,25 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
     <t>Award</t>
   </si>
   <si>
-    <t>Coefficient</t>
+    <t>AwardPool</t>
   </si>
   <si>
     <t>Gulf of Aden</t>
   </si>
   <si>
     <t>Banner_Aden</t>
+  </si>
+  <si>
+    <t>1015|1016|1017|1018|1019|1020</t>
   </si>
   <si>
     <t>Black Sea</t>
@@ -108,11 +123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -131,12 +146,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -144,22 +212,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,50 +251,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,47 +275,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,15 +589,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,16 +616,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,26 +1139,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.70909090909091" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.7909090909091" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.6545454545455" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.87272727272727" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.0636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.0545454545455" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5454545454545" style="2" customWidth="1"/>
-    <col min="7" max="16381" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="32.3636363636364" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.4181818181818" style="2" customWidth="1"/>
+    <col min="10" max="16381" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,185 +1180,245 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" ht="14.75" spans="1:6">
+    <row r="5" ht="14.75" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
-        <v>101</v>
+      <c r="E5" s="4">
+        <v>2</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" ht="14.75" spans="1:6">
+    <row r="6" ht="14.75" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
-        <v>101</v>
+      <c r="E6" s="4">
+        <v>3</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" ht="14.75" spans="1:6">
+    <row r="7" ht="14.75" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
-        <v>101</v>
+      <c r="E7" s="4">
+        <v>3</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" ht="14.75" spans="1:6">
+    <row r="8" ht="14.75" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
-        <v>101</v>
+      <c r="E8" s="4">
+        <v>4</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="14.75" spans="1:6">
+    <row r="9" ht="14.75" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
-        <v>101</v>
+      <c r="E9" s="4">
+        <v>4</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="14.75" spans="1:6">
+    <row r="10" ht="14.75" spans="1:8">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>101</v>
+      <c r="E10" s="4">
+        <v>5</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="4:4">
